--- a/App/bases_download_novos nomes_220527.xlsx
+++ b/App/bases_download_novos nomes_220527.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131efba7b001de3/Pessoal/RSL Consultoria/Horizon/05-Tese Psiquiatria/tese-psiquiatria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131efba7b001de3/Pessoal/RSL Consultoria/Horizon/05-Tese Psiquiatria/HZN-tese-psiquiatria/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{175545E7-A9F0-492C-A2E6-F49967F35D72}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8618C6F4-4D02-4E9C-9410-127528BC213E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Detalhes_da_Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Detalhes_da_Base!$A$1:$K$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Detalhes_da_Base!$A$1:$K$468</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="697">
   <si>
     <t>coluna</t>
   </si>
@@ -2074,18 +2074,12 @@
     <t>percentual_sus</t>
   </si>
   <si>
-    <t>? Qual a diferença do '% Leitos SUS / Totais'?</t>
-  </si>
-  <si>
     <t>Ação Necessária</t>
   </si>
   <si>
     <t>percentual_sm</t>
   </si>
   <si>
-    <t>? Qual a diferença do '% Profissionais SM'?</t>
-  </si>
-  <si>
     <t>etapa_filtrado</t>
   </si>
   <si>
@@ -2110,19 +2104,31 @@
     <t>Etapa filtrado</t>
   </si>
   <si>
-    <t>Tirar pois é coluna e tentar colocar em sheet separado</t>
-  </si>
-  <si>
-    <t>usar faturaremnto_presumido p/ calcular</t>
-  </si>
-  <si>
-    <t>usar numero de processos</t>
-  </si>
-  <si>
     <t>falar com rodrigo e buscar na base da transunion</t>
   </si>
   <si>
-    <t>Falar com filipe coutinho e buscar na base</t>
+    <t>gmapsCompanyName</t>
+  </si>
+  <si>
+    <t>gmapsTelephone</t>
+  </si>
+  <si>
+    <t>gmapsAddress</t>
+  </si>
+  <si>
+    <t>Usado numero de processos</t>
+  </si>
+  <si>
+    <t>Usado faturamento presumido</t>
+  </si>
+  <si>
+    <t>Usado URL Site</t>
+  </si>
+  <si>
+    <t>Usado CNPJ</t>
+  </si>
+  <si>
+    <t>Fuzzy_nome_CNESvsGMN</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2159,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2176,12 +2182,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2215,8 +2215,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2600,11 +2600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G303" sqref="G303"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>676</v>
@@ -9772,7 +9772,7 @@
         <v>154</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -9797,7 +9797,7 @@
         <v>353</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -10042,51 +10042,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="C285" s="12"/>
-      <c r="E285" s="11"/>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="I285" s="11"/>
-      <c r="J285" s="11"/>
-      <c r="K285" s="11"/>
-    </row>
-    <row r="286" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11" t="s">
+    <row r="285" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C285" s="7"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13"/>
+      <c r="G285" s="13"/>
+      <c r="H285" s="10">
+        <v>1</v>
+      </c>
+      <c r="I285" s="13">
+        <v>0</v>
+      </c>
+      <c r="J285" s="13">
+        <v>0</v>
+      </c>
+      <c r="K285" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="C286" s="12"/>
-      <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="11"/>
+      <c r="C286" s="7"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="10">
+        <v>1</v>
+      </c>
+      <c r="I286" s="13">
+        <v>0</v>
+      </c>
+      <c r="J286" s="13">
+        <v>0</v>
+      </c>
+      <c r="K286" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C287" s="7"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
+      <c r="H287" s="10">
+        <v>1</v>
+      </c>
       <c r="I287" s="6">
         <v>1</v>
       </c>
@@ -10099,15 +10116,18 @@
     </row>
     <row r="288" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C288" s="7"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
+      <c r="H288" s="10">
+        <v>1</v>
+      </c>
       <c r="I288" s="6">
         <v>1</v>
       </c>
@@ -10486,11 +10506,9 @@
       <c r="F302" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G302" s="11" t="s">
-        <v>694</v>
-      </c>
+      <c r="G302" s="6"/>
       <c r="I302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -10501,7 +10519,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>59</v>
+        <v>689</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>383</v>
@@ -10513,8 +10531,9 @@
       <c r="F303" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="G303" s="11" t="s">
-        <v>694</v>
+      <c r="G303" s="6"/>
+      <c r="H303" s="1">
+        <v>1</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -10528,7 +10547,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>59</v>
+        <v>691</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>385</v>
@@ -10540,8 +10559,9 @@
       <c r="F304" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G304" s="11" t="s">
-        <v>694</v>
+      <c r="G304" s="6"/>
+      <c r="H304" s="1">
+        <v>1</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -10555,7 +10575,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>387</v>
@@ -10567,8 +10587,9 @@
       <c r="F305" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G305" s="11" t="s">
-        <v>694</v>
+      <c r="G305" s="6"/>
+      <c r="H305" s="1">
+        <v>1</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -13721,17 +13742,11 @@
         <v>656</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="I445" s="10">
-        <v>1</v>
-      </c>
-      <c r="J445" s="10">
-        <v>1</v>
-      </c>
-      <c r="K445" s="10">
-        <v>1</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="I445" s="10"/>
+      <c r="J445" s="10"/>
+      <c r="K445" s="10"/>
       <c r="L445" s="10"/>
       <c r="M445" s="10"/>
       <c r="N445" s="10"/>
@@ -13749,7 +13764,7 @@
         <v>19</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I446" s="10">
         <v>1</v>
@@ -13802,7 +13817,7 @@
         <v>657</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I448" s="10">
         <v>1</v>
@@ -13933,7 +13948,7 @@
         <v>661</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I453" s="10">
         <v>1</v>
@@ -13964,17 +13979,11 @@
         <v>656</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="I454" s="10">
-        <v>1</v>
-      </c>
-      <c r="J454" s="10">
-        <v>1</v>
-      </c>
-      <c r="K454" s="10">
-        <v>1</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="I454" s="10"/>
+      <c r="J454" s="10"/>
+      <c r="K454" s="10"/>
       <c r="L454" s="10"/>
       <c r="M454" s="10"/>
       <c r="N454" s="10"/>
@@ -13989,10 +13998,10 @@
         <v>663</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>12</v>
+        <v>658</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I455" s="10">
         <v>1</v>
@@ -14017,10 +14026,10 @@
         <v>663</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I456" s="10">
         <v>1</v>
@@ -14045,10 +14054,10 @@
         <v>663</v>
       </c>
       <c r="F457" s="10" t="s">
-        <v>659</v>
+        <v>46</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I457" s="10">
         <v>1</v>
@@ -14073,16 +14082,13 @@
         <v>663</v>
       </c>
       <c r="F458" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>684</v>
+        <v>50</v>
       </c>
       <c r="I458" s="10">
         <v>1</v>
       </c>
       <c r="J458" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K458" s="10">
         <v>0</v>
@@ -14101,13 +14107,16 @@
         <v>663</v>
       </c>
       <c r="F459" s="10" t="s">
-        <v>50</v>
+        <v>664</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="I459" s="10">
         <v>1</v>
       </c>
       <c r="J459" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K459" s="10">
         <v>0</v>
@@ -14118,7 +14127,10 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>59</v>
+        <v>665</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="10"/>
@@ -14126,10 +14138,11 @@
         <v>663</v>
       </c>
       <c r="F460" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="G460" s="1" t="s">
-        <v>684</v>
+        <v>661</v>
+      </c>
+      <c r="G460" s="10"/>
+      <c r="H460" s="1">
+        <v>1</v>
       </c>
       <c r="I460" s="10">
         <v>1</v>
@@ -14146,42 +14159,35 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>665</v>
+        <v>59</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="10"/>
       <c r="E461" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="G461" s="10"/>
-      <c r="H461" s="1">
-        <v>1</v>
-      </c>
-      <c r="I461" s="10">
-        <v>1</v>
-      </c>
-      <c r="J461" s="10">
-        <v>1</v>
-      </c>
-      <c r="K461" s="10">
-        <v>0</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G461" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="I461" s="10"/>
+      <c r="J461" s="10"/>
+      <c r="K461" s="10"/>
       <c r="L461" s="10"/>
       <c r="M461" s="10"/>
       <c r="N461" s="10"/>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>59</v>
+        <v>668</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="10"/>
@@ -14189,10 +14195,11 @@
         <v>667</v>
       </c>
       <c r="F462" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G462" s="13" t="s">
-        <v>692</v>
+        <v>657</v>
+      </c>
+      <c r="G462" s="10"/>
+      <c r="H462" s="1">
+        <v>1</v>
       </c>
       <c r="I462" s="10">
         <v>1</v>
@@ -14201,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="K462" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L462" s="10"/>
       <c r="M462" s="10"/>
@@ -14209,32 +14216,25 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>668</v>
+        <v>59</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="10"/>
       <c r="E463" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F463" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="G463" s="10"/>
-      <c r="H463" s="1">
-        <v>1</v>
-      </c>
-      <c r="I463" s="10">
-        <v>1</v>
-      </c>
-      <c r="J463" s="10">
-        <v>1</v>
-      </c>
-      <c r="K463" s="10">
-        <v>0</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G463" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="I463" s="10"/>
+      <c r="J463" s="10"/>
+      <c r="K463" s="10"/>
       <c r="L463" s="10"/>
       <c r="M463" s="10"/>
       <c r="N463" s="10"/>
@@ -14242,9 +14242,6 @@
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="10"/>
@@ -14252,10 +14249,10 @@
         <v>669</v>
       </c>
       <c r="F464" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G464" s="13" t="s">
-        <v>691</v>
+        <v>19</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="I464" s="10">
         <v>1</v>
@@ -14264,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="K464" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L464" s="10"/>
       <c r="M464" s="10"/>
@@ -14280,10 +14277,10 @@
         <v>669</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I465" s="10">
         <v>1</v>
@@ -14299,8 +14296,8 @@
       <c r="N465" s="10"/>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>59</v>
+      <c r="B466" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="10"/>
@@ -14308,10 +14305,10 @@
         <v>669</v>
       </c>
       <c r="F466" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I466" s="10">
         <v>1</v>
@@ -14327,36 +14324,28 @@
       <c r="N466" s="10"/>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B467" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C467" s="4"/>
+      <c r="A467" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="D467" s="10"/>
       <c r="E467" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="F467" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="G467" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I467" s="10">
-        <v>1</v>
-      </c>
-      <c r="J467" s="10">
-        <v>1</v>
-      </c>
-      <c r="K467" s="10">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F467" s="10"/>
+      <c r="G467" s="10"/>
+      <c r="H467" s="1">
+        <v>1</v>
+      </c>
+      <c r="I467" s="10"/>
+      <c r="J467" s="10"/>
+      <c r="K467" s="10"/>
       <c r="L467" s="10"/>
       <c r="M467" s="10"/>
       <c r="N467" s="10"/>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D468" s="10"/>
       <c r="E468" s="10" t="s">
@@ -14375,18 +14364,10 @@
       <c r="N468" s="10"/>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="D469" s="10"/>
-      <c r="E469" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="E469" s="10"/>
       <c r="F469" s="10"/>
       <c r="G469" s="10"/>
-      <c r="H469" s="1">
-        <v>1</v>
-      </c>
       <c r="I469" s="10"/>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
@@ -14442,20 +14423,8 @@
       <c r="M473" s="10"/>
       <c r="N473" s="10"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D474" s="10"/>
-      <c r="E474" s="10"/>
-      <c r="F474" s="10"/>
-      <c r="G474" s="10"/>
-      <c r="I474" s="10"/>
-      <c r="J474" s="10"/>
-      <c r="K474" s="10"/>
-      <c r="L474" s="10"/>
-      <c r="M474" s="10"/>
-      <c r="N474" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K469" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K468" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/App/bases_download_novos nomes_220527.xlsx
+++ b/App/bases_download_novos nomes_220527.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131efba7b001de3/Pessoal/RSL Consultoria/Horizon/05-Tese Psiquiatria/HZN-tese-psiquiatria/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8618C6F4-4D02-4E9C-9410-127528BC213E}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35392FA9-B7C4-4F52-A883-3D8951E0A560}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="700">
   <si>
     <t>coluna</t>
   </si>
@@ -2020,21 +2020,12 @@
     <t>Cidade</t>
   </si>
   <si>
-    <t>Matching Receita</t>
-  </si>
-  <si>
-    <t>Check ponderado</t>
-  </si>
-  <si>
     <t>% estabelecimentos encontrados GMN</t>
   </si>
   <si>
     <t>CNES vs Google Meu Negocio</t>
   </si>
   <si>
-    <t>CEP oito digitos</t>
-  </si>
-  <si>
     <t>matching_GMN</t>
   </si>
   <si>
@@ -2053,9 +2044,6 @@
     <t>% estabelecimentos encontrados Transunion</t>
   </si>
   <si>
-    <t>Matching_transunion</t>
-  </si>
-  <si>
     <t>qtd_paginas_y</t>
   </si>
   <si>
@@ -2086,18 +2074,6 @@
     <t>grupo leitos</t>
   </si>
   <si>
-    <t>Variavel não tem nome</t>
-  </si>
-  <si>
-    <t>Fazer Fuzzy?</t>
-  </si>
-  <si>
-    <t>Entender</t>
-  </si>
-  <si>
-    <t>Fuzzy?</t>
-  </si>
-  <si>
     <t>Grupo A ou B</t>
   </si>
   <si>
@@ -2116,19 +2092,52 @@
     <t>gmapsAddress</t>
   </si>
   <si>
-    <t>Usado numero de processos</t>
-  </si>
-  <si>
-    <t>Usado faturamento presumido</t>
-  </si>
-  <si>
-    <t>Usado URL Site</t>
-  </si>
-  <si>
-    <t>Usado CNPJ</t>
-  </si>
-  <si>
     <t>Fuzzy_nome_CNESvsGMN</t>
+  </si>
+  <si>
+    <t>Fuzzy_razão_social_CNESvsEscavador</t>
+  </si>
+  <si>
+    <t>Falta CNPJ transunion na base</t>
+  </si>
+  <si>
+    <t>Falta Razão Social transunion na base</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Precisa reprocessar base, problema de arredondamento</t>
+  </si>
+  <si>
+    <t>Fuzzy_Fantasia_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Fuzzy_Razão_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Fuzzy_Logradouro_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Fuzzy_UF_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Fuzzy_Número_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>OK, já calculado na base</t>
+  </si>
+  <si>
+    <t>Fuzzy_Município_CNESvsRF</t>
+  </si>
+  <si>
+    <t>Ponderado</t>
+  </si>
+  <si>
+    <t>já calculado na base</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2168,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2184,6 +2193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2198,7 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2217,6 +2232,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,8 +2619,8 @@
   <dimension ref="A1:N473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -4967,7 +4983,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C85" s="4"/>
       <c r="E85" s="5" t="s">
@@ -5051,7 +5067,7 @@
         <v>139</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C88" s="4"/>
       <c r="E88" s="5" t="s">
@@ -9772,7 +9788,7 @@
         <v>154</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -9797,7 +9813,7 @@
         <v>353</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -10044,10 +10060,10 @@
     </row>
     <row r="285" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C285" s="7"/>
       <c r="E285" s="13"/>
@@ -10068,10 +10084,10 @@
     </row>
     <row r="286" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C286" s="7"/>
       <c r="E286" s="13"/>
@@ -10092,10 +10108,10 @@
     </row>
     <row r="287" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C287" s="7"/>
       <c r="E287" s="6"/>
@@ -10116,10 +10132,10 @@
     </row>
     <row r="288" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C288" s="7"/>
       <c r="E288" s="6"/>
@@ -10519,7 +10535,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>383</v>
@@ -10547,7 +10563,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>385</v>
@@ -10575,7 +10591,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>387</v>
@@ -13728,7 +13744,7 @@
       <c r="A445" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B445" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C445" s="4" t="s">
@@ -13742,7 +13758,7 @@
         <v>656</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="I445" s="10"/>
       <c r="J445" s="10"/>
@@ -13763,8 +13779,8 @@
       <c r="F446" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G446" s="1" t="s">
-        <v>682</v>
+      <c r="G446" s="14" t="s">
+        <v>689</v>
       </c>
       <c r="I446" s="10">
         <v>1</v>
@@ -13782,6 +13798,9 @@
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="10"/>
@@ -13791,6 +13810,9 @@
       <c r="F447" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="G447" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="I447" s="10">
         <v>1</v>
       </c>
@@ -13807,6 +13829,9 @@
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="10"/>
@@ -13817,7 +13842,7 @@
         <v>657</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="I448" s="10">
         <v>1</v>
@@ -13835,6 +13860,9 @@
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="10"/>
@@ -13844,6 +13872,9 @@
       <c r="F449" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="G449" s="10" t="s">
+        <v>688</v>
+      </c>
       <c r="I449" s="10">
         <v>1</v>
       </c>
@@ -13860,6 +13891,9 @@
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="10"/>
@@ -13869,6 +13903,9 @@
       <c r="F450" s="10" t="s">
         <v>658</v>
       </c>
+      <c r="G450" s="10" t="s">
+        <v>688</v>
+      </c>
       <c r="I450" s="10">
         <v>1</v>
       </c>
@@ -13885,6 +13922,9 @@
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="10"/>
@@ -13894,6 +13934,9 @@
       <c r="F451" s="10" t="s">
         <v>659</v>
       </c>
+      <c r="G451" s="10" t="s">
+        <v>688</v>
+      </c>
       <c r="I451" s="10">
         <v>1</v>
       </c>
@@ -13910,6 +13953,9 @@
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="10"/>
@@ -13919,6 +13965,9 @@
       <c r="F452" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="G452" s="10" t="s">
+        <v>688</v>
+      </c>
       <c r="I452" s="10">
         <v>1</v>
       </c>
@@ -13936,29 +13985,23 @@
       <c r="A453" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" s="12" t="s">
         <v>660</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="10"/>
       <c r="E453" s="10" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I453" s="10">
-        <v>1</v>
-      </c>
-      <c r="J453" s="10">
-        <v>1</v>
-      </c>
-      <c r="K453" s="10">
-        <v>0</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="I453" s="10"/>
+      <c r="J453" s="10"/>
+      <c r="K453" s="10"/>
       <c r="L453" s="10"/>
       <c r="M453" s="10"/>
       <c r="N453" s="10"/>
@@ -13967,23 +14010,23 @@
       <c r="A454" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="C454" s="4"/>
       <c r="D454" s="10"/>
       <c r="E454" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F454" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="I454" s="10"/>
-      <c r="J454" s="10"/>
-      <c r="K454" s="10"/>
+        <v>658</v>
+      </c>
+      <c r="I454" s="10">
+        <v>1</v>
+      </c>
+      <c r="J454" s="10">
+        <v>1</v>
+      </c>
+      <c r="K454" s="10">
+        <v>0</v>
+      </c>
       <c r="L454" s="10"/>
       <c r="M454" s="10"/>
       <c r="N454" s="10"/>
@@ -13995,13 +14038,10 @@
       <c r="C455" s="4"/>
       <c r="D455" s="10"/>
       <c r="E455" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="I455" s="10">
         <v>1</v>
@@ -14023,13 +14063,10 @@
       <c r="C456" s="4"/>
       <c r="D456" s="10"/>
       <c r="E456" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="G456" s="1" t="s">
-        <v>682</v>
+        <v>46</v>
       </c>
       <c r="I456" s="10">
         <v>1</v>
@@ -14051,19 +14088,16 @@
       <c r="C457" s="4"/>
       <c r="D457" s="10"/>
       <c r="E457" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F457" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G457" s="1" t="s">
-        <v>682</v>
+        <v>50</v>
       </c>
       <c r="I457" s="10">
         <v>1</v>
       </c>
       <c r="J457" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K457" s="10">
         <v>0</v>
@@ -14079,16 +14113,16 @@
       <c r="C458" s="4"/>
       <c r="D458" s="10"/>
       <c r="E458" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F458" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I458" s="10">
         <v>1</v>
       </c>
       <c r="J458" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K458" s="10">
         <v>0</v>
@@ -14099,24 +14133,30 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="10"/>
       <c r="E459" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F459" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="G459" s="1" t="s">
-        <v>682</v>
+        <v>698</v>
+      </c>
+      <c r="G459" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="H459" s="1">
+        <v>1</v>
       </c>
       <c r="I459" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K459" s="10">
         <v>0</v>
@@ -14125,22 +14165,24 @@
       <c r="M459" s="10"/>
       <c r="N459" s="10"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>665</v>
+        <v>59</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="10"/>
       <c r="E460" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F460" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="G460" s="10"/>
+        <v>695</v>
+      </c>
+      <c r="G460" s="10" t="s">
+        <v>688</v>
+      </c>
       <c r="H460" s="1">
         <v>1</v>
       </c>
@@ -14150,9 +14192,7 @@
       <c r="J460" s="10">
         <v>1</v>
       </c>
-      <c r="K460" s="10">
-        <v>0</v>
-      </c>
+      <c r="K460" s="10"/>
       <c r="L460" s="10"/>
       <c r="M460" s="10"/>
       <c r="N460" s="10"/>
@@ -14161,19 +14201,19 @@
       <c r="A461" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>666</v>
+      <c r="B461" s="12" t="s">
+        <v>663</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="10"/>
       <c r="E461" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F461" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="G461" s="12" t="s">
-        <v>692</v>
+      <c r="G461" s="10" t="s">
+        <v>688</v>
       </c>
       <c r="I461" s="10"/>
       <c r="J461" s="10"/>
@@ -14182,17 +14222,17 @@
       <c r="M461" s="10"/>
       <c r="N461" s="10"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>668</v>
+        <v>59</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="10"/>
       <c r="E462" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F462" s="10" t="s">
         <v>657</v>
@@ -14216,25 +14256,34 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>59</v>
+        <v>665</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="10"/>
       <c r="E463" s="10" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F463" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G463" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="I463" s="10"/>
-      <c r="J463" s="10"/>
-      <c r="K463" s="10"/>
+        <v>698</v>
+      </c>
+      <c r="G463" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="H463" s="1">
+        <v>1</v>
+      </c>
+      <c r="I463" s="10">
+        <v>1</v>
+      </c>
+      <c r="J463" s="10">
+        <v>1</v>
+      </c>
+      <c r="K463" s="10">
+        <v>0</v>
+      </c>
       <c r="L463" s="10"/>
       <c r="M463" s="10"/>
       <c r="N463" s="10"/>
@@ -14243,26 +14292,23 @@
       <c r="A464" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B464" s="12" t="s">
+        <v>667</v>
+      </c>
       <c r="C464" s="4"/>
       <c r="D464" s="10"/>
       <c r="E464" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F464" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G464" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I464" s="10">
-        <v>1</v>
-      </c>
-      <c r="J464" s="10">
-        <v>1</v>
-      </c>
-      <c r="K464" s="10">
-        <v>0</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G464" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="I464" s="10"/>
+      <c r="J464" s="10"/>
+      <c r="K464" s="10"/>
       <c r="L464" s="10"/>
       <c r="M464" s="10"/>
       <c r="N464" s="10"/>
@@ -14274,13 +14320,13 @@
       <c r="C465" s="4"/>
       <c r="D465" s="10"/>
       <c r="E465" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="G465" s="1" t="s">
-        <v>684</v>
+        <v>19</v>
+      </c>
+      <c r="G465" s="14" t="s">
+        <v>686</v>
       </c>
       <c r="I465" s="10">
         <v>1</v>
@@ -14296,19 +14342,19 @@
       <c r="N465" s="10"/>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B466" s="1" t="s">
-        <v>671</v>
+      <c r="A466" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="10"/>
       <c r="E466" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F466" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="G466" s="1" t="s">
-        <v>685</v>
+        <v>657</v>
+      </c>
+      <c r="G466" s="14" t="s">
+        <v>687</v>
       </c>
       <c r="I466" s="10">
         <v>1</v>
@@ -14325,7 +14371,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D467" s="10"/>
       <c r="E467" s="10" t="s">
@@ -14345,7 +14391,7 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D468" s="10"/>
       <c r="E468" s="10" t="s">

--- a/App/bases_download_novos nomes_220527.xlsx
+++ b/App/bases_download_novos nomes_220527.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131efba7b001de3/Pessoal/RSL Consultoria/Horizon/05-Tese Psiquiatria/HZN-tese-psiquiatria/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35392FA9-B7C4-4F52-A883-3D8951E0A560}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="13_ncr:1_{6E4D9A89-9BBC-634A-A36E-87D371701F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC4CE5C-5122-4F6A-94B1-800A6646CA0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Detalhes_da_Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Detalhes_da_Base!$A$1:$K$468</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Detalhes_da_Base!$A$1:$K$469</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="705">
   <si>
     <t>coluna</t>
   </si>
@@ -1096,9 +1096,6 @@
     <t>cnpj transunion</t>
   </si>
   <si>
-    <t>razão social transunion</t>
-  </si>
-  <si>
     <t>razao social</t>
   </si>
   <si>
@@ -2098,18 +2095,9 @@
     <t>Fuzzy_razão_social_CNESvsEscavador</t>
   </si>
   <si>
-    <t>Falta CNPJ transunion na base</t>
-  </si>
-  <si>
-    <t>Falta Razão Social transunion na base</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Precisa reprocessar base, problema de arredondamento</t>
-  </si>
-  <si>
     <t>Fuzzy_Fantasia_CNESvsRF</t>
   </si>
   <si>
@@ -2138,6 +2126,33 @@
   </si>
   <si>
     <t>já calculado na base</t>
+  </si>
+  <si>
+    <t>Fuzzy_CNPJ_CNESvsRF</t>
+  </si>
+  <si>
+    <t>CNPJ_8_Digitos</t>
+  </si>
+  <si>
+    <t>CNPJ 8 Digitos</t>
+  </si>
+  <si>
+    <t>CNPJ CNES</t>
+  </si>
+  <si>
+    <t>Não faz sentido pois é a chave</t>
+  </si>
+  <si>
+    <t>Razao_Social_transunion</t>
+  </si>
+  <si>
+    <t>Razão Social Transunion</t>
+  </si>
+  <si>
+    <t>Fuzzy_Razão_CNESvsTransunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2183,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2193,12 +2208,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2213,7 +2222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2229,10 +2238,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2616,11 +2623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N473"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
+      <pane ySplit="1" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,10 +2662,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -4983,7 +4990,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C85" s="4"/>
       <c r="E85" s="5" t="s">
@@ -5067,7 +5074,7 @@
         <v>139</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C88" s="4"/>
       <c r="E88" s="5" t="s">
@@ -9787,8 +9794,8 @@
       <c r="F274" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G274" s="11" t="s">
-        <v>680</v>
+      <c r="G274" s="6" t="s">
+        <v>700</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -9802,23 +9809,26 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>59</v>
+        <v>701</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>352</v>
+        <v>702</v>
       </c>
       <c r="C275" s="4"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G275" s="11" t="s">
-        <v>680</v>
+        <v>352</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="H275" s="1">
+        <v>1</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
       </c>
-      <c r="J275" s="5">
+      <c r="J275" s="6">
         <v>1</v>
       </c>
       <c r="K275" s="5">
@@ -9827,17 +9837,17 @@
     </row>
     <row r="276" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C276" s="4"/>
       <c r="E276" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G276" s="6"/>
       <c r="H276" s="1">
@@ -9858,14 +9868,14 @@
         <v>59</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C277" s="4"/>
       <c r="E277" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G277" s="6"/>
       <c r="I277" s="5">
@@ -9880,10 +9890,10 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C278" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -9903,7 +9913,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C279" s="7"/>
       <c r="E279" s="5"/>
@@ -9924,10 +9934,10 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C280" s="7"/>
       <c r="E280" s="5"/>
@@ -9948,17 +9958,17 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C281" s="7"/>
       <c r="E281" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G281" s="6"/>
       <c r="H281" s="1">
@@ -9976,17 +9986,17 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C282" s="7"/>
       <c r="E282" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G282" s="6"/>
       <c r="H282" s="1">
@@ -10004,17 +10014,17 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C283" s="7"/>
       <c r="E283" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G283" s="6"/>
       <c r="H283" s="1">
@@ -10032,17 +10042,17 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C284" s="7"/>
       <c r="E284" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G284" s="6"/>
       <c r="H284" s="1">
@@ -10059,59 +10069,59 @@
       </c>
     </row>
     <row r="285" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="B285" s="13" t="s">
-        <v>675</v>
+      <c r="A285" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>674</v>
       </c>
       <c r="C285" s="7"/>
-      <c r="E285" s="13"/>
-      <c r="F285" s="13"/>
-      <c r="G285" s="13"/>
+      <c r="E285" s="12"/>
+      <c r="F285" s="12"/>
+      <c r="G285" s="12"/>
       <c r="H285" s="10">
         <v>1</v>
       </c>
-      <c r="I285" s="13">
-        <v>0</v>
-      </c>
-      <c r="J285" s="13">
-        <v>0</v>
-      </c>
-      <c r="K285" s="13">
+      <c r="I285" s="12">
+        <v>0</v>
+      </c>
+      <c r="J285" s="12">
+        <v>0</v>
+      </c>
+      <c r="K285" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="B286" s="13" t="s">
-        <v>673</v>
+      <c r="A286" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="C286" s="7"/>
-      <c r="E286" s="13"/>
-      <c r="F286" s="13"/>
-      <c r="G286" s="13"/>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+      <c r="G286" s="12"/>
       <c r="H286" s="10">
         <v>1</v>
       </c>
-      <c r="I286" s="13">
-        <v>0</v>
-      </c>
-      <c r="J286" s="13">
-        <v>0</v>
-      </c>
-      <c r="K286" s="13">
+      <c r="I286" s="12">
+        <v>0</v>
+      </c>
+      <c r="J286" s="12">
+        <v>0</v>
+      </c>
+      <c r="K286" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="C287" s="7"/>
       <c r="E287" s="6"/>
@@ -10132,10 +10142,10 @@
     </row>
     <row r="288" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C288" s="7"/>
       <c r="E288" s="6"/>
@@ -10156,17 +10166,17 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C289" s="7"/>
       <c r="E289" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G289" s="6"/>
       <c r="H289" s="1">
@@ -10184,17 +10194,17 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C290" s="7"/>
       <c r="E290" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G290" s="6"/>
       <c r="H290" s="1">
@@ -10212,17 +10222,17 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C291" s="7"/>
       <c r="E291" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G291" s="6"/>
       <c r="H291" s="1">
@@ -10240,17 +10250,17 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C292" s="7"/>
       <c r="E292" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G292" s="6"/>
       <c r="H292" s="1">
@@ -10268,17 +10278,17 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C293" s="7"/>
       <c r="E293" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G293" s="6"/>
       <c r="H293" s="1">
@@ -10296,17 +10306,17 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C294" s="7"/>
       <c r="E294" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F294" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="F294" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="G294" s="6"/>
       <c r="H294" s="1">
@@ -10324,17 +10334,17 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C295" s="7"/>
       <c r="E295" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G295" s="6"/>
       <c r="H295" s="1">
@@ -10352,17 +10362,17 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C296" s="7"/>
       <c r="E296" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G296" s="6"/>
       <c r="H296" s="1">
@@ -10380,17 +10390,17 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C297" s="7"/>
       <c r="E297" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G297" s="6"/>
       <c r="H297" s="1">
@@ -10408,17 +10418,17 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C298" s="7"/>
       <c r="E298" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G298" s="6"/>
       <c r="H298" s="1">
@@ -10436,17 +10446,17 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C299" s="7"/>
       <c r="E299" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G299" s="6"/>
       <c r="H299" s="1">
@@ -10462,27 +10472,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F300" s="5" t="s">
-        <v>380</v>
+    <row r="300" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C300" s="7"/>
+      <c r="E300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="G300" s="6"/>
-      <c r="I300" s="5">
-        <v>1</v>
-      </c>
-      <c r="J300" s="8">
-        <v>0</v>
-      </c>
-      <c r="K300" s="8">
+      <c r="H300" s="1">
+        <v>1</v>
+      </c>
+      <c r="I300" s="6">
+        <v>1</v>
+      </c>
+      <c r="J300" s="1">
+        <v>1</v>
+      </c>
+      <c r="K300" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10490,12 +10504,14 @@
       <c r="A301" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C301" s="4"/>
+      <c r="C301" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="E301" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F301" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="F301" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="G301" s="6"/>
       <c r="I301" s="5">
@@ -10512,50 +10528,44 @@
       <c r="A302" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="C302" s="4"/>
-      <c r="E302" s="3" t="s">
-        <v>101</v>
+      <c r="E302" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G302" s="6"/>
       <c r="I302" s="5">
-        <v>0</v>
-      </c>
-      <c r="J302">
-        <v>0</v>
-      </c>
-      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="J302" s="8">
+        <v>0</v>
+      </c>
+      <c r="K302" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>681</v>
+        <v>59</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C303" s="4"/>
       <c r="E303" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G303" s="6"/>
-      <c r="H303" s="1">
-        <v>1</v>
-      </c>
       <c r="I303" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -10563,17 +10573,17 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C304" s="4"/>
       <c r="E304" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G304" s="6"/>
       <c r="H304" s="1">
@@ -10594,14 +10604,14 @@
         <v>682</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C305" s="4"/>
       <c r="E305" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="G305" s="6"/>
       <c r="H305" s="1">
@@ -10611,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -10619,17 +10629,17 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>388</v>
+        <v>681</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C306" s="4"/>
       <c r="E306" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="G306" s="6"/>
       <c r="H306" s="1">
@@ -10639,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K306">
         <v>0</v>
@@ -10647,17 +10657,17 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C307" s="4"/>
       <c r="E307" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G307" s="6"/>
       <c r="H307" s="1">
@@ -10670,22 +10680,22 @@
         <v>1</v>
       </c>
       <c r="K307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C308" s="4"/>
       <c r="E308" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G308" s="6"/>
       <c r="H308" s="1">
@@ -10698,22 +10708,22 @@
         <v>1</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C309" s="4"/>
       <c r="E309" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G309" s="6"/>
       <c r="H309" s="1">
@@ -10726,51 +10736,51 @@
         <v>1</v>
       </c>
       <c r="K309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="B310" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>396</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C310" s="4"/>
       <c r="E310" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="G310" s="6"/>
+      <c r="H310" s="1">
+        <v>1</v>
+      </c>
       <c r="I310" s="5">
         <v>1</v>
       </c>
       <c r="J310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="B311" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C311" s="7"/>
+        <v>394</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="E311" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G311" s="6"/>
-      <c r="H311" s="1">
-        <v>1</v>
-      </c>
       <c r="I311" s="5">
         <v>1</v>
       </c>
@@ -10783,17 +10793,17 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C312" s="7"/>
       <c r="E312" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="G312" s="6"/>
       <c r="H312" s="1">
@@ -10803,25 +10813,25 @@
         <v>1</v>
       </c>
       <c r="J312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C313" s="7"/>
       <c r="E313" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G313" s="6"/>
       <c r="H313" s="1">
@@ -10837,69 +10847,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E314" t="s">
-        <v>403</v>
-      </c>
-      <c r="F314" t="s">
-        <v>404</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C314" s="7"/>
+      <c r="E314" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G314" s="6"/>
       <c r="H314" s="1">
         <v>1</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="5">
         <v>1</v>
       </c>
       <c r="J314">
         <v>1</v>
       </c>
       <c r="K314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C315" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="E315" t="s">
+        <v>402</v>
+      </c>
+      <c r="F315" t="s">
         <v>403</v>
       </c>
-      <c r="F315" t="s">
-        <v>406</v>
-      </c>
       <c r="H315" s="1">
         <v>1</v>
       </c>
       <c r="I315">
         <v>1</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C316" s="4"/>
       <c r="E316" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F316" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H316" s="1">
         <v>1</v>
@@ -10910,17 +10927,17 @@
     </row>
     <row r="317" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C317" s="4"/>
       <c r="E317" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F317" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H317" s="1">
         <v>1</v>
@@ -10931,65 +10948,65 @@
     </row>
     <row r="318" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C318" s="4"/>
       <c r="E318" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F318" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H318" s="1">
         <v>1</v>
       </c>
       <c r="I318">
         <v>1</v>
-      </c>
-      <c r="J318">
-        <v>1</v>
-      </c>
-      <c r="K318">
-        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C319" s="4"/>
       <c r="E319" t="s">
+        <v>410</v>
+      </c>
+      <c r="F319" t="s">
         <v>411</v>
       </c>
-      <c r="F319" t="s">
-        <v>414</v>
-      </c>
       <c r="H319" s="1">
         <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C320" s="4"/>
       <c r="E320" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F320" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H320" s="1">
         <v>1</v>
@@ -11000,65 +11017,65 @@
     </row>
     <row r="321" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C321" s="4"/>
       <c r="E321" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F321" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H321" s="1">
         <v>1</v>
       </c>
       <c r="I321">
         <v>1</v>
-      </c>
-      <c r="J321">
-        <v>1</v>
-      </c>
-      <c r="K321">
-        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C322" s="4"/>
       <c r="E322" t="s">
+        <v>416</v>
+      </c>
+      <c r="F322" t="s">
         <v>417</v>
       </c>
-      <c r="F322" t="s">
-        <v>420</v>
-      </c>
       <c r="H322" s="1">
         <v>1</v>
       </c>
       <c r="I322">
         <v>1</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C323" s="4"/>
       <c r="E323" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F323" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H323" s="1">
         <v>1</v>
@@ -11069,17 +11086,17 @@
     </row>
     <row r="324" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C324" s="4"/>
       <c r="E324" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F324" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H324" s="1">
         <v>1</v>
@@ -11090,17 +11107,17 @@
     </row>
     <row r="325" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C325" s="4"/>
       <c r="E325" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F325" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H325" s="1">
         <v>1</v>
@@ -11111,67 +11128,67 @@
     </row>
     <row r="326" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>427</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C326" s="4"/>
       <c r="E326" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F326" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H326" s="1">
         <v>1</v>
       </c>
       <c r="I326">
-        <v>1</v>
-      </c>
-      <c r="J326">
-        <v>1</v>
-      </c>
-      <c r="K326">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C327" s="4"/>
+        <v>425</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="E327" t="s">
+        <v>427</v>
+      </c>
+      <c r="F327" t="s">
         <v>428</v>
       </c>
-      <c r="F327" t="s">
-        <v>431</v>
-      </c>
       <c r="H327" s="1">
         <v>1</v>
       </c>
       <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C328" s="4"/>
       <c r="E328" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F328" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H328" s="1">
         <v>1</v>
@@ -11182,17 +11199,17 @@
     </row>
     <row r="329" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C329" s="4"/>
       <c r="E329" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F329" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H329" s="1">
         <v>1</v>
@@ -11203,17 +11220,17 @@
     </row>
     <row r="330" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C330" s="4"/>
       <c r="E330" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F330" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H330" s="1">
         <v>1</v>
@@ -11224,17 +11241,17 @@
     </row>
     <row r="331" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C331" s="4"/>
       <c r="E331" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F331" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H331" s="1">
         <v>1</v>
@@ -11245,17 +11262,17 @@
     </row>
     <row r="332" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C332" s="4"/>
       <c r="E332" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F332" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H332" s="1">
         <v>1</v>
@@ -11266,65 +11283,65 @@
     </row>
     <row r="333" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C333" s="4"/>
       <c r="E333" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F333" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H333" s="1">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
-      </c>
-      <c r="J333">
-        <v>1</v>
-      </c>
-      <c r="K333">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C334" s="4"/>
       <c r="E334" t="s">
+        <v>441</v>
+      </c>
+      <c r="F334" t="s">
         <v>442</v>
       </c>
-      <c r="F334" t="s">
-        <v>445</v>
-      </c>
       <c r="H334" s="1">
         <v>1</v>
       </c>
       <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C335" s="4"/>
       <c r="E335" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F335" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H335" s="1">
         <v>1</v>
@@ -11335,65 +11352,65 @@
     </row>
     <row r="336" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C336" s="4"/>
       <c r="E336" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F336" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H336" s="1">
         <v>1</v>
       </c>
       <c r="I336">
-        <v>1</v>
-      </c>
-      <c r="J336">
-        <v>1</v>
-      </c>
-      <c r="K336">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C337" s="4"/>
       <c r="E337" t="s">
+        <v>447</v>
+      </c>
+      <c r="F337" t="s">
         <v>448</v>
       </c>
-      <c r="F337" t="s">
-        <v>451</v>
-      </c>
       <c r="H337" s="1">
         <v>1</v>
       </c>
       <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337">
         <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C338" s="4"/>
       <c r="E338" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F338" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H338" s="1">
         <v>1</v>
@@ -11404,17 +11421,17 @@
     </row>
     <row r="339" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C339" s="4"/>
       <c r="E339" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F339" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H339" s="1">
         <v>1</v>
@@ -11425,17 +11442,17 @@
     </row>
     <row r="340" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C340" s="4"/>
       <c r="E340" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F340" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H340" s="1">
         <v>1</v>
@@ -11446,65 +11463,65 @@
     </row>
     <row r="341" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C341" s="4"/>
       <c r="E341" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F341" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H341" s="1">
         <v>1</v>
       </c>
       <c r="I341">
-        <v>1</v>
-      </c>
-      <c r="J341">
-        <v>1</v>
-      </c>
-      <c r="K341">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C342" s="4"/>
       <c r="E342" t="s">
+        <v>457</v>
+      </c>
+      <c r="F342" t="s">
         <v>458</v>
       </c>
-      <c r="F342" t="s">
-        <v>461</v>
-      </c>
       <c r="H342" s="1">
         <v>1</v>
       </c>
       <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C343" s="4"/>
       <c r="E343" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F343" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H343" s="1">
         <v>1</v>
@@ -11515,17 +11532,17 @@
     </row>
     <row r="344" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C344" s="4"/>
       <c r="E344" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F344" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H344" s="1">
         <v>1</v>
@@ -11536,17 +11553,17 @@
     </row>
     <row r="345" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C345" s="4"/>
       <c r="E345" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F345" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H345" s="1">
         <v>1</v>
@@ -11557,93 +11574,86 @@
     </row>
     <row r="346" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C346" s="4"/>
       <c r="E346" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F346" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H346" s="1">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>1</v>
-      </c>
-      <c r="J346">
-        <v>1</v>
-      </c>
-      <c r="K346">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C347" s="4"/>
       <c r="E347" t="s">
+        <v>467</v>
+      </c>
+      <c r="F347" t="s">
         <v>468</v>
       </c>
-      <c r="F347" t="s">
-        <v>470</v>
-      </c>
       <c r="H347" s="1">
         <v>1</v>
       </c>
       <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C348" s="4"/>
-      <c r="E348" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="F348" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G348" s="9"/>
+      <c r="E348" t="s">
+        <v>467</v>
+      </c>
+      <c r="F348" t="s">
+        <v>469</v>
+      </c>
       <c r="H348" s="1">
         <v>1</v>
       </c>
       <c r="I348">
         <v>1</v>
-      </c>
-      <c r="J348">
-        <v>1</v>
-      </c>
-      <c r="K348">
-        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C349" s="4"/>
       <c r="E349" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F349" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="F349" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="G349" s="9"/>
       <c r="H349" s="1">
@@ -11652,20 +11662,26 @@
       <c r="I349">
         <v>1</v>
       </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C350" s="4"/>
       <c r="E350" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G350" s="9"/>
       <c r="H350" s="1">
@@ -11677,17 +11693,17 @@
     </row>
     <row r="351" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C351" s="4"/>
       <c r="E351" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G351" s="9"/>
       <c r="H351" s="1">
@@ -11699,65 +11715,66 @@
     </row>
     <row r="352" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C352" s="4"/>
-      <c r="E352" t="s">
-        <v>481</v>
-      </c>
-      <c r="F352" t="s">
-        <v>482</v>
-      </c>
+      <c r="E352" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G352" s="9"/>
       <c r="H352" s="1">
         <v>1</v>
       </c>
       <c r="I352">
         <v>1</v>
-      </c>
-      <c r="J352">
-        <v>1</v>
-      </c>
-      <c r="K352">
-        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C353" s="4"/>
       <c r="E353" t="s">
+        <v>480</v>
+      </c>
+      <c r="F353" t="s">
         <v>481</v>
       </c>
-      <c r="F353" t="s">
-        <v>484</v>
-      </c>
       <c r="H353" s="1">
         <v>1</v>
       </c>
       <c r="I353">
         <v>1</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C354" s="4"/>
       <c r="E354" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F354" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H354" s="1">
         <v>1</v>
@@ -11768,17 +11785,17 @@
     </row>
     <row r="355" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C355" s="4"/>
       <c r="E355" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F355" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H355" s="1">
         <v>1</v>
@@ -11789,17 +11806,17 @@
     </row>
     <row r="356" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C356" s="4"/>
       <c r="E356" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F356" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H356" s="1">
         <v>1</v>
@@ -11810,17 +11827,17 @@
     </row>
     <row r="357" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C357" s="4"/>
       <c r="E357" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F357" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H357" s="1">
         <v>1</v>
@@ -11831,17 +11848,17 @@
     </row>
     <row r="358" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C358" s="4"/>
       <c r="E358" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F358" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H358" s="1">
         <v>1</v>
@@ -11852,17 +11869,17 @@
     </row>
     <row r="359" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C359" s="4"/>
       <c r="E359" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F359" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H359" s="1">
         <v>1</v>
@@ -11873,67 +11890,67 @@
     </row>
     <row r="360" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C360" s="4"/>
       <c r="E360" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F360" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H360" s="1">
         <v>1</v>
       </c>
       <c r="I360">
         <v>1</v>
-      </c>
-      <c r="J360">
-        <v>1</v>
-      </c>
-      <c r="K360">
-        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C361" s="4"/>
+        <v>496</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="E361" t="s">
+        <v>498</v>
+      </c>
+      <c r="F361" t="s">
         <v>499</v>
       </c>
-      <c r="F361" t="s">
-        <v>502</v>
-      </c>
       <c r="H361" s="1">
         <v>1</v>
       </c>
       <c r="I361">
         <v>1</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C362" s="4"/>
       <c r="E362" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F362" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H362" s="1">
         <v>1</v>
@@ -11944,17 +11961,17 @@
     </row>
     <row r="363" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C363" s="4"/>
       <c r="E363" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F363" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H363" s="1">
         <v>1</v>
@@ -11965,17 +11982,17 @@
     </row>
     <row r="364" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C364" s="4"/>
       <c r="E364" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F364" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H364" s="1">
         <v>1</v>
@@ -11986,17 +12003,17 @@
     </row>
     <row r="365" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C365" s="4"/>
       <c r="E365" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F365" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H365" s="1">
         <v>1</v>
@@ -12007,17 +12024,17 @@
     </row>
     <row r="366" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C366" s="4"/>
       <c r="E366" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F366" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H366" s="1">
         <v>1</v>
@@ -12028,17 +12045,17 @@
     </row>
     <row r="367" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C367" s="4"/>
       <c r="E367" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F367" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H367" s="1">
         <v>1</v>
@@ -12049,17 +12066,17 @@
     </row>
     <row r="368" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C368" s="4"/>
       <c r="E368" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F368" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="H368" s="1">
         <v>1</v>
@@ -12070,17 +12087,17 @@
     </row>
     <row r="369" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C369" s="4"/>
       <c r="E369" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F369" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="H369" s="1">
         <v>1</v>
@@ -12091,65 +12108,65 @@
     </row>
     <row r="370" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C370" s="4"/>
       <c r="E370" t="s">
+        <v>516</v>
+      </c>
+      <c r="F370" t="s">
         <v>517</v>
       </c>
-      <c r="F370" t="s">
-        <v>520</v>
-      </c>
       <c r="H370" s="1">
         <v>1</v>
       </c>
       <c r="I370">
         <v>1</v>
-      </c>
-      <c r="J370">
-        <v>1</v>
-      </c>
-      <c r="K370">
-        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C371" s="4"/>
       <c r="E371" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F371" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H371" s="1">
         <v>1</v>
       </c>
       <c r="I371">
         <v>1</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C372" s="4"/>
       <c r="E372" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F372" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H372" s="1">
         <v>1</v>
@@ -12160,17 +12177,17 @@
     </row>
     <row r="373" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C373" s="4"/>
       <c r="E373" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F373" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H373" s="1">
         <v>1</v>
@@ -12181,17 +12198,17 @@
     </row>
     <row r="374" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C374" s="4"/>
       <c r="E374" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F374" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H374" s="1">
         <v>1</v>
@@ -12202,17 +12219,17 @@
     </row>
     <row r="375" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C375" s="4"/>
       <c r="E375" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F375" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H375" s="1">
         <v>1</v>
@@ -12223,17 +12240,17 @@
     </row>
     <row r="376" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C376" s="4"/>
       <c r="E376" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F376" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H376" s="1">
         <v>1</v>
@@ -12244,17 +12261,17 @@
     </row>
     <row r="377" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C377" s="4"/>
       <c r="E377" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F377" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H377" s="1">
         <v>1</v>
@@ -12265,17 +12282,17 @@
     </row>
     <row r="378" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C378" s="4"/>
       <c r="E378" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F378" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H378" s="1">
         <v>1</v>
@@ -12286,17 +12303,17 @@
     </row>
     <row r="379" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C379" s="4"/>
       <c r="E379" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F379" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H379" s="1">
         <v>1</v>
@@ -12307,17 +12324,17 @@
     </row>
     <row r="380" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C380" s="4"/>
       <c r="E380" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F380" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H380" s="1">
         <v>1</v>
@@ -12328,17 +12345,17 @@
     </row>
     <row r="381" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C381" s="4"/>
       <c r="E381" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F381" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="H381" s="1">
         <v>1</v>
@@ -12349,65 +12366,65 @@
     </row>
     <row r="382" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C382" s="4"/>
       <c r="E382" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="F382" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="H382" s="1">
         <v>1</v>
       </c>
       <c r="I382">
         <v>1</v>
-      </c>
-      <c r="J382">
-        <v>1</v>
-      </c>
-      <c r="K382">
-        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C383" s="4"/>
       <c r="E383" t="s">
+        <v>542</v>
+      </c>
+      <c r="F383" t="s">
         <v>543</v>
       </c>
-      <c r="F383" t="s">
-        <v>546</v>
-      </c>
       <c r="H383" s="1">
         <v>1</v>
       </c>
       <c r="I383">
         <v>1</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C384" s="4"/>
       <c r="E384" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F384" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H384" s="1">
         <v>1</v>
@@ -12418,17 +12435,17 @@
     </row>
     <row r="385" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C385" s="4"/>
       <c r="E385" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F385" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H385" s="1">
         <v>1</v>
@@ -12439,17 +12456,17 @@
     </row>
     <row r="386" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C386" s="4"/>
       <c r="E386" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F386" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H386" s="1">
         <v>1</v>
@@ -12460,17 +12477,17 @@
     </row>
     <row r="387" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C387" s="4"/>
       <c r="E387" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F387" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H387" s="1">
         <v>1</v>
@@ -12481,17 +12498,17 @@
     </row>
     <row r="388" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C388" s="4"/>
       <c r="E388" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F388" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="H388" s="1">
         <v>1</v>
@@ -12502,65 +12519,65 @@
     </row>
     <row r="389" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C389" s="4"/>
       <c r="E389" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F389" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="H389" s="1">
         <v>1</v>
       </c>
       <c r="I389">
         <v>1</v>
-      </c>
-      <c r="J389">
-        <v>1</v>
-      </c>
-      <c r="K389">
-        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C390" s="4"/>
       <c r="E390" t="s">
+        <v>556</v>
+      </c>
+      <c r="F390" t="s">
         <v>557</v>
       </c>
-      <c r="F390" t="s">
-        <v>560</v>
-      </c>
       <c r="H390" s="1">
         <v>1</v>
       </c>
       <c r="I390">
         <v>1</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C391" s="4"/>
       <c r="E391" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F391" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H391" s="1">
         <v>1</v>
@@ -12571,17 +12588,17 @@
     </row>
     <row r="392" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C392" s="4"/>
       <c r="E392" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F392" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H392" s="1">
         <v>1</v>
@@ -12592,67 +12609,67 @@
     </row>
     <row r="393" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>565</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C393" s="4"/>
       <c r="E393" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F393" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H393" s="1">
         <v>1</v>
       </c>
       <c r="I393">
         <v>1</v>
-      </c>
-      <c r="J393">
-        <v>1</v>
-      </c>
-      <c r="K393">
-        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C394" s="4"/>
+        <v>563</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="E394" t="s">
+        <v>565</v>
+      </c>
+      <c r="F394" t="s">
         <v>566</v>
       </c>
-      <c r="F394" t="s">
-        <v>567</v>
-      </c>
       <c r="H394" s="1">
         <v>1</v>
       </c>
       <c r="I394">
         <v>1</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C395" s="4"/>
       <c r="E395" t="s">
+        <v>565</v>
+      </c>
+      <c r="F395" t="s">
         <v>566</v>
-      </c>
-      <c r="F395" t="s">
-        <v>570</v>
       </c>
       <c r="H395" s="1">
         <v>1</v>
@@ -12663,17 +12680,17 @@
     </row>
     <row r="396" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C396" s="4"/>
       <c r="E396" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F396" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H396" s="1">
         <v>1</v>
@@ -12684,161 +12701,161 @@
     </row>
     <row r="397" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C397" s="4"/>
       <c r="E397" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F397" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H397" s="1">
         <v>1</v>
       </c>
       <c r="I397">
-        <v>1</v>
-      </c>
-      <c r="J397">
-        <v>1</v>
-      </c>
-      <c r="K397">
         <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C398" s="4"/>
       <c r="E398" t="s">
+        <v>573</v>
+      </c>
+      <c r="F398" t="s">
         <v>574</v>
       </c>
-      <c r="F398" t="s">
-        <v>575</v>
-      </c>
       <c r="H398" s="1">
         <v>1</v>
       </c>
       <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+      <c r="K398">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C399" s="4"/>
       <c r="E399" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F399" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H399" s="1">
         <v>1</v>
       </c>
       <c r="I399">
-        <v>1</v>
-      </c>
-      <c r="J399">
-        <v>1</v>
-      </c>
-      <c r="K399">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C400" s="4"/>
       <c r="E400" t="s">
+        <v>577</v>
+      </c>
+      <c r="F400" t="s">
         <v>578</v>
       </c>
-      <c r="F400" t="s">
-        <v>579</v>
-      </c>
       <c r="H400" s="1">
         <v>1</v>
       </c>
       <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400">
         <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C401" s="4"/>
       <c r="E401" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F401" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H401" s="1">
         <v>1</v>
       </c>
       <c r="I401">
         <v>1</v>
-      </c>
-      <c r="J401">
-        <v>1</v>
-      </c>
-      <c r="K401">
-        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C402" s="4"/>
       <c r="E402" t="s">
+        <v>581</v>
+      </c>
+      <c r="F402" t="s">
         <v>582</v>
       </c>
-      <c r="F402" t="s">
-        <v>583</v>
-      </c>
       <c r="H402" s="1">
         <v>1</v>
       </c>
       <c r="I402">
         <v>1</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C403" s="4"/>
       <c r="E403" t="s">
+        <v>581</v>
+      </c>
+      <c r="F403" t="s">
         <v>582</v>
-      </c>
-      <c r="F403" t="s">
-        <v>586</v>
       </c>
       <c r="H403" s="1">
         <v>1</v>
@@ -12849,17 +12866,17 @@
     </row>
     <row r="404" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C404" s="4"/>
       <c r="E404" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F404" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H404" s="1">
         <v>1</v>
@@ -12870,17 +12887,17 @@
     </row>
     <row r="405" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C405" s="4"/>
       <c r="E405" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F405" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H405" s="1">
         <v>1</v>
@@ -12891,161 +12908,161 @@
     </row>
     <row r="406" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C406" s="4"/>
       <c r="E406" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F406" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H406" s="1">
         <v>1</v>
       </c>
       <c r="I406">
         <v>1</v>
-      </c>
-      <c r="J406">
-        <v>1</v>
-      </c>
-      <c r="K406">
-        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C407" s="4"/>
       <c r="E407" t="s">
+        <v>590</v>
+      </c>
+      <c r="F407" t="s">
         <v>591</v>
       </c>
-      <c r="F407" t="s">
-        <v>592</v>
-      </c>
       <c r="H407" s="1">
         <v>1</v>
       </c>
       <c r="I407">
         <v>1</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C408" s="4"/>
       <c r="E408" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F408" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H408" s="1">
         <v>1</v>
       </c>
       <c r="I408">
         <v>1</v>
-      </c>
-      <c r="J408">
-        <v>1</v>
-      </c>
-      <c r="K408">
-        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C409" s="4"/>
       <c r="E409" t="s">
+        <v>594</v>
+      </c>
+      <c r="F409" t="s">
         <v>595</v>
       </c>
-      <c r="F409" t="s">
-        <v>596</v>
-      </c>
       <c r="H409" s="1">
         <v>1</v>
       </c>
       <c r="I409">
         <v>1</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C410" s="4"/>
       <c r="E410" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F410" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H410" s="1">
         <v>1</v>
       </c>
       <c r="I410">
         <v>1</v>
-      </c>
-      <c r="J410">
-        <v>1</v>
-      </c>
-      <c r="K410">
-        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C411" s="4"/>
       <c r="E411" t="s">
+        <v>598</v>
+      </c>
+      <c r="F411" t="s">
         <v>599</v>
       </c>
-      <c r="F411" t="s">
-        <v>600</v>
-      </c>
       <c r="H411" s="1">
         <v>1</v>
       </c>
       <c r="I411">
         <v>1</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C412" s="4"/>
       <c r="E412" t="s">
+        <v>598</v>
+      </c>
+      <c r="F412" t="s">
         <v>599</v>
-      </c>
-      <c r="F412" t="s">
-        <v>603</v>
       </c>
       <c r="H412" s="1">
         <v>1</v>
@@ -13056,65 +13073,65 @@
     </row>
     <row r="413" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C413" s="4"/>
       <c r="E413" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F413" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H413" s="1">
         <v>1</v>
       </c>
       <c r="I413">
         <v>1</v>
-      </c>
-      <c r="J413">
-        <v>1</v>
-      </c>
-      <c r="K413">
-        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C414" s="4"/>
       <c r="E414" t="s">
+        <v>604</v>
+      </c>
+      <c r="F414" t="s">
         <v>605</v>
       </c>
-      <c r="F414" t="s">
-        <v>606</v>
-      </c>
       <c r="H414" s="1">
         <v>1</v>
       </c>
       <c r="I414">
         <v>1</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C415" s="4"/>
       <c r="E415" t="s">
+        <v>604</v>
+      </c>
+      <c r="F415" t="s">
         <v>605</v>
-      </c>
-      <c r="F415" t="s">
-        <v>609</v>
       </c>
       <c r="H415" s="1">
         <v>1</v>
@@ -13125,113 +13142,113 @@
     </row>
     <row r="416" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C416" s="4"/>
       <c r="E416" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F416" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H416" s="1">
         <v>1</v>
       </c>
       <c r="I416">
         <v>1</v>
-      </c>
-      <c r="J416">
-        <v>1</v>
-      </c>
-      <c r="K416">
-        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C417" s="4"/>
       <c r="E417" t="s">
+        <v>610</v>
+      </c>
+      <c r="F417" t="s">
         <v>611</v>
       </c>
-      <c r="F417" t="s">
-        <v>612</v>
-      </c>
       <c r="H417" s="1">
         <v>1</v>
       </c>
       <c r="I417">
         <v>1</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C418" s="4"/>
       <c r="E418" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F418" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H418" s="1">
         <v>1</v>
       </c>
       <c r="I418">
         <v>1</v>
-      </c>
-      <c r="J418">
-        <v>1</v>
-      </c>
-      <c r="K418">
-        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C419" s="4"/>
       <c r="E419" t="s">
+        <v>614</v>
+      </c>
+      <c r="F419" t="s">
         <v>615</v>
       </c>
-      <c r="F419" t="s">
-        <v>616</v>
-      </c>
       <c r="H419" s="1">
         <v>1</v>
       </c>
       <c r="I419">
         <v>1</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C420" s="4"/>
       <c r="E420" t="s">
+        <v>614</v>
+      </c>
+      <c r="F420" t="s">
         <v>615</v>
-      </c>
-      <c r="F420" t="s">
-        <v>619</v>
       </c>
       <c r="H420" s="1">
         <v>1</v>
@@ -13242,65 +13259,65 @@
     </row>
     <row r="421" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C421" s="4"/>
       <c r="E421" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F421" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H421" s="1">
         <v>1</v>
       </c>
       <c r="I421">
         <v>1</v>
-      </c>
-      <c r="J421">
-        <v>1</v>
-      </c>
-      <c r="K421">
-        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C422" s="4"/>
       <c r="E422" t="s">
+        <v>621</v>
+      </c>
+      <c r="F422" t="s">
         <v>622</v>
       </c>
-      <c r="F422" t="s">
-        <v>623</v>
-      </c>
       <c r="H422" s="1">
         <v>1</v>
       </c>
       <c r="I422">
         <v>1</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C423" s="4"/>
       <c r="E423" t="s">
+        <v>621</v>
+      </c>
+      <c r="F423" t="s">
         <v>622</v>
-      </c>
-      <c r="F423" t="s">
-        <v>626</v>
       </c>
       <c r="H423" s="1">
         <v>1</v>
@@ -13311,17 +13328,17 @@
     </row>
     <row r="424" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C424" s="4"/>
       <c r="E424" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F424" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H424" s="1">
         <v>1</v>
@@ -13330,39 +13347,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>629</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C425" s="4"/>
       <c r="E425" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F425" t="s">
-        <v>631</v>
+        <v>627</v>
+      </c>
+      <c r="H425" s="1">
+        <v>1</v>
       </c>
       <c r="I425">
         <v>1</v>
-      </c>
-      <c r="J425">
-        <v>0</v>
-      </c>
-      <c r="K425">
-        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C426" s="7"/>
+      <c r="C426" s="7" t="s">
+        <v>628</v>
+      </c>
       <c r="E426" t="s">
+        <v>629</v>
+      </c>
+      <c r="F426" t="s">
         <v>630</v>
-      </c>
-      <c r="F426" t="s">
-        <v>632</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -13380,10 +13397,10 @@
       </c>
       <c r="C427" s="7"/>
       <c r="E427" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F427" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I427">
         <v>1</v>
@@ -13401,10 +13418,10 @@
       </c>
       <c r="C428" s="7"/>
       <c r="E428" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F428" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I428">
         <v>1</v>
@@ -13422,10 +13439,10 @@
       </c>
       <c r="C429" s="7"/>
       <c r="E429" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F429" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I429">
         <v>1</v>
@@ -13443,10 +13460,10 @@
       </c>
       <c r="C430" s="7"/>
       <c r="E430" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F430" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -13464,10 +13481,10 @@
       </c>
       <c r="C431" s="7"/>
       <c r="E431" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F431" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I431">
         <v>1</v>
@@ -13485,10 +13502,10 @@
       </c>
       <c r="C432" s="7"/>
       <c r="E432" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F432" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I432">
         <v>1</v>
@@ -13506,10 +13523,10 @@
       </c>
       <c r="C433" s="7"/>
       <c r="E433" t="s">
+        <v>637</v>
+      </c>
+      <c r="F433" t="s">
         <v>638</v>
-      </c>
-      <c r="F433" t="s">
-        <v>640</v>
       </c>
       <c r="I433">
         <v>1</v>
@@ -13527,10 +13544,10 @@
       </c>
       <c r="C434" s="7"/>
       <c r="E434" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F434" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -13542,21 +13559,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="10" t="s">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C435" s="7"/>
-      <c r="E435" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="F435" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="I435" s="10">
-        <v>1</v>
-      </c>
-      <c r="J435" s="10">
+      <c r="E435" t="s">
+        <v>637</v>
+      </c>
+      <c r="F435" t="s">
+        <v>640</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
         <v>0</v>
       </c>
     </row>
@@ -13566,10 +13586,10 @@
       </c>
       <c r="C436" s="7"/>
       <c r="E436" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F436" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I436" s="10">
         <v>1</v>
@@ -13584,18 +13604,15 @@
       </c>
       <c r="C437" s="7"/>
       <c r="E437" s="10" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F437" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I437" s="10">
         <v>1</v>
       </c>
       <c r="J437" s="10">
-        <v>0</v>
-      </c>
-      <c r="K437" s="10">
         <v>0</v>
       </c>
     </row>
@@ -13605,10 +13622,10 @@
       </c>
       <c r="C438" s="7"/>
       <c r="E438" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="F438" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="F438" s="10" t="s">
-        <v>646</v>
       </c>
       <c r="I438" s="10">
         <v>1</v>
@@ -13626,10 +13643,10 @@
       </c>
       <c r="C439" s="7"/>
       <c r="E439" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I439" s="10">
         <v>1</v>
@@ -13647,10 +13664,10 @@
       </c>
       <c r="C440" s="7"/>
       <c r="E440" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I440" s="10">
         <v>1</v>
@@ -13668,10 +13685,10 @@
       </c>
       <c r="C441" s="7"/>
       <c r="E441" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F441" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I441" s="10">
         <v>1</v>
@@ -13689,10 +13706,10 @@
       </c>
       <c r="C442" s="7"/>
       <c r="E442" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F442" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I442" s="10">
         <v>1</v>
@@ -13710,15 +13727,18 @@
       </c>
       <c r="C443" s="7"/>
       <c r="E443" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F443" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I443" s="10">
         <v>1</v>
       </c>
       <c r="J443" s="10">
+        <v>0</v>
+      </c>
+      <c r="K443" s="10">
         <v>0</v>
       </c>
     </row>
@@ -13728,10 +13748,10 @@
       </c>
       <c r="C444" s="7"/>
       <c r="E444" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F444" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I444" s="10">
         <v>1</v>
@@ -13740,57 +13760,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+    <row r="445" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B445" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D445" s="10"/>
+      <c r="C445" s="7"/>
       <c r="E445" s="10" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G445" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I445" s="10"/>
-      <c r="J445" s="10"/>
-      <c r="K445" s="10"/>
-      <c r="L445" s="10"/>
-      <c r="M445" s="10"/>
-      <c r="N445" s="10"/>
+        <v>651</v>
+      </c>
+      <c r="I445" s="10">
+        <v>1</v>
+      </c>
+      <c r="J445" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C446" s="4"/>
+      <c r="B446" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="D446" s="10"/>
       <c r="E446" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F446" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="F446" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G446" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="I446" s="10">
-        <v>1</v>
-      </c>
-      <c r="J446" s="10">
-        <v>1</v>
-      </c>
-      <c r="K446" s="10">
-        <v>0</v>
-      </c>
+      <c r="G446" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I446" s="10"/>
+      <c r="J446" s="10"/>
+      <c r="K446" s="10"/>
       <c r="L446" s="10"/>
       <c r="M446" s="10"/>
       <c r="N446" s="10"/>
@@ -13800,24 +13810,24 @@
         <v>59</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="10"/>
       <c r="E447" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I447" s="10">
         <v>1</v>
       </c>
       <c r="J447" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K447" s="10">
         <v>0</v>
@@ -13831,24 +13841,24 @@
         <v>59</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="10"/>
       <c r="E448" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F448" s="10" t="s">
-        <v>657</v>
+        <v>12</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I448" s="10">
         <v>1</v>
       </c>
       <c r="J448" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K448" s="10">
         <v>0</v>
@@ -13862,24 +13872,24 @@
         <v>59</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="10"/>
       <c r="E449" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F449" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G449" s="10" t="s">
-        <v>688</v>
+        <v>656</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="I449" s="10">
         <v>1</v>
       </c>
       <c r="J449" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K449" s="10">
         <v>0</v>
@@ -13893,18 +13903,18 @@
         <v>59</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="10"/>
       <c r="E450" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F450" s="10" t="s">
-        <v>658</v>
+        <v>31</v>
       </c>
       <c r="G450" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I450" s="10">
         <v>1</v>
@@ -13924,18 +13934,18 @@
         <v>59</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="10"/>
       <c r="E451" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F451" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G451" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I451" s="10">
         <v>1</v>
@@ -13960,13 +13970,13 @@
       <c r="C452" s="4"/>
       <c r="D452" s="10"/>
       <c r="E452" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F452" s="10" t="s">
-        <v>46</v>
+        <v>658</v>
       </c>
       <c r="G452" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I452" s="10">
         <v>1</v>
@@ -13985,23 +13995,29 @@
       <c r="A453" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B453" s="12" t="s">
-        <v>660</v>
+      <c r="B453" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="10"/>
       <c r="E453" s="10" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I453" s="10"/>
-      <c r="J453" s="10"/>
-      <c r="K453" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G453" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="I453" s="10">
+        <v>1</v>
+      </c>
+      <c r="J453" s="10">
+        <v>0</v>
+      </c>
+      <c r="K453" s="10">
+        <v>0</v>
+      </c>
       <c r="L453" s="10"/>
       <c r="M453" s="10"/>
       <c r="N453" s="10"/>
@@ -14010,23 +14026,23 @@
       <c r="A454" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B454" s="11" t="s">
+        <v>659</v>
+      </c>
       <c r="C454" s="4"/>
       <c r="D454" s="10"/>
       <c r="E454" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F454" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="I454" s="10">
-        <v>1</v>
-      </c>
-      <c r="J454" s="10">
-        <v>1</v>
-      </c>
-      <c r="K454" s="10">
-        <v>0</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I454" s="10"/>
+      <c r="J454" s="10"/>
+      <c r="K454" s="10"/>
       <c r="L454" s="10"/>
       <c r="M454" s="10"/>
       <c r="N454" s="10"/>
@@ -14038,10 +14054,10 @@
       <c r="C455" s="4"/>
       <c r="D455" s="10"/>
       <c r="E455" s="10" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I455" s="10">
         <v>1</v>
@@ -14063,10 +14079,10 @@
       <c r="C456" s="4"/>
       <c r="D456" s="10"/>
       <c r="E456" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>46</v>
+        <v>658</v>
       </c>
       <c r="I456" s="10">
         <v>1</v>
@@ -14088,16 +14104,16 @@
       <c r="C457" s="4"/>
       <c r="D457" s="10"/>
       <c r="E457" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F457" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I457" s="10">
         <v>1</v>
       </c>
       <c r="J457" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K457" s="10">
         <v>0</v>
@@ -14113,16 +14129,16 @@
       <c r="C458" s="4"/>
       <c r="D458" s="10"/>
       <c r="E458" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F458" s="10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I458" s="10">
         <v>1</v>
       </c>
       <c r="J458" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K458" s="10">
         <v>0</v>
@@ -14133,30 +14149,21 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>662</v>
+        <v>59</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="10"/>
       <c r="E459" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F459" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="G459" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="H459" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I459" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K459" s="10">
         <v>0</v>
@@ -14165,113 +14172,113 @@
       <c r="M459" s="10"/>
       <c r="N459" s="10"/>
     </row>
-    <row r="460" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>59</v>
+        <v>661</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="10"/>
       <c r="E460" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F460" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G460" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="G460" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="H460" s="1">
         <v>1</v>
       </c>
       <c r="I460" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" s="10">
-        <v>1</v>
-      </c>
-      <c r="K460" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K460" s="10">
+        <v>0</v>
+      </c>
       <c r="L460" s="10"/>
       <c r="M460" s="10"/>
       <c r="N460" s="10"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B461" s="12" t="s">
-        <v>663</v>
+      <c r="B461" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="10"/>
       <c r="E461" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="G461" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="I461" s="10"/>
-      <c r="J461" s="10"/>
+        <v>685</v>
+      </c>
+      <c r="H461" s="1">
+        <v>1</v>
+      </c>
+      <c r="I461" s="10">
+        <v>1</v>
+      </c>
+      <c r="J461" s="10">
+        <v>1</v>
+      </c>
       <c r="K461" s="10"/>
       <c r="L461" s="10"/>
       <c r="M461" s="10"/>
       <c r="N461" s="10"/>
     </row>
-    <row r="462" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>685</v>
+      <c r="B462" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="10"/>
       <c r="E462" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F462" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="G462" s="10"/>
-      <c r="H462" s="1">
-        <v>1</v>
-      </c>
-      <c r="I462" s="10">
-        <v>1</v>
-      </c>
-      <c r="J462" s="10">
-        <v>1</v>
-      </c>
-      <c r="K462" s="10">
-        <v>0</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G462" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="I462" s="10"/>
+      <c r="J462" s="10"/>
+      <c r="K462" s="10"/>
       <c r="L462" s="10"/>
       <c r="M462" s="10"/>
       <c r="N462" s="10"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>665</v>
+        <v>59</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="10"/>
       <c r="E463" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F463" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="G463" s="10" t="s">
-        <v>696</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G463" s="10"/>
       <c r="H463" s="1">
         <v>1</v>
       </c>
@@ -14290,25 +14297,34 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B464" s="12" t="s">
-        <v>667</v>
+        <v>664</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="10"/>
       <c r="E464" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F464" s="10" t="s">
-        <v>656</v>
+        <v>694</v>
       </c>
       <c r="G464" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="I464" s="10"/>
-      <c r="J464" s="10"/>
-      <c r="K464" s="10"/>
+        <v>692</v>
+      </c>
+      <c r="H464" s="1">
+        <v>1</v>
+      </c>
+      <c r="I464" s="10">
+        <v>1</v>
+      </c>
+      <c r="J464" s="10">
+        <v>1</v>
+      </c>
+      <c r="K464" s="10">
+        <v>0</v>
+      </c>
       <c r="L464" s="10"/>
       <c r="M464" s="10"/>
       <c r="N464" s="10"/>
@@ -14317,26 +14333,23 @@
       <c r="A465" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B465" s="11" t="s">
+        <v>666</v>
+      </c>
       <c r="C465" s="4"/>
       <c r="D465" s="10"/>
       <c r="E465" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G465" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="I465" s="10">
-        <v>1</v>
-      </c>
-      <c r="J465" s="10">
-        <v>1</v>
-      </c>
-      <c r="K465" s="10">
-        <v>0</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G465" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="I465" s="10"/>
+      <c r="J465" s="10"/>
+      <c r="K465" s="10"/>
       <c r="L465" s="10"/>
       <c r="M465" s="10"/>
       <c r="N465" s="10"/>
@@ -14348,13 +14361,13 @@
       <c r="C466" s="4"/>
       <c r="D466" s="10"/>
       <c r="E466" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F466" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="G466" s="14" t="s">
-        <v>687</v>
+        <v>19</v>
+      </c>
+      <c r="G466" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="I466" s="10">
         <v>1</v>
@@ -14371,27 +14384,41 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>668</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C467" s="4"/>
       <c r="D467" s="10"/>
       <c r="E467" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F467" s="10"/>
-      <c r="G467" s="10"/>
+        <v>665</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="G467" s="10" t="s">
+        <v>685</v>
+      </c>
       <c r="H467" s="1">
         <v>1</v>
       </c>
-      <c r="I467" s="10"/>
-      <c r="J467" s="10"/>
-      <c r="K467" s="10"/>
+      <c r="I467" s="10">
+        <v>1</v>
+      </c>
+      <c r="J467" s="10">
+        <v>1</v>
+      </c>
+      <c r="K467" s="10">
+        <v>0</v>
+      </c>
       <c r="L467" s="10"/>
       <c r="M467" s="10"/>
       <c r="N467" s="10"/>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D468" s="10"/>
       <c r="E468" s="10" t="s">
@@ -14410,10 +14437,18 @@
       <c r="N468" s="10"/>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="D469" s="10"/>
-      <c r="E469" s="10"/>
+      <c r="E469" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F469" s="10"/>
       <c r="G469" s="10"/>
+      <c r="H469" s="1">
+        <v>1</v>
+      </c>
       <c r="I469" s="10"/>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
@@ -14469,8 +14504,20 @@
       <c r="M473" s="10"/>
       <c r="N473" s="10"/>
     </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D474" s="10"/>
+      <c r="E474" s="10"/>
+      <c r="F474" s="10"/>
+      <c r="G474" s="10"/>
+      <c r="I474" s="10"/>
+      <c r="J474" s="10"/>
+      <c r="K474" s="10"/>
+      <c r="L474" s="10"/>
+      <c r="M474" s="10"/>
+      <c r="N474" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K468" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K469" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
